--- a/medicine/Enfance/Mortelle_Adèle/Mortelle_Adèle.xlsx
+++ b/medicine/Enfance/Mortelle_Adèle/Mortelle_Adèle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mortelle_Ad%C3%A8le</t>
+          <t>Mortelle_Adèle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mortelle Adèle est une série de bande dessinée jeunesse française créée par Antoine Dole sous le pseudonyme de Mr Tan. Les tomes 1 à 7 sont illustrés par Miss Prickly, les tomes 8 et suivants par Diane Le Feyer. La série est publiée par les éditions Bayard Jeunesse qui ont racheté les éditions Tourbillon et Milan.
-Mortelle Adèle raconte le quotidien d'une petite fille au caractère bien trempé prénommée Adèle, qui porte un regard cynique et sans concession sur le monde qui l'entoure. Il y a en elle un peu de Mafalda et de Mercredi Addams[1].
+Mortelle Adèle raconte le quotidien d'une petite fille au caractère bien trempé prénommée Adèle, qui porte un regard cynique et sans concession sur le monde qui l'entoure. Il y a en elle un peu de Mafalda et de Mercredi Addams.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mortelle_Ad%C3%A8le</t>
+          <t>Mortelle_Adèle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Dole imagine le personnage d'Adèle alors qu'il avait 14 ans et était victime de harcèlement scolaire au collège[2]. Il imagine le personnage comme son opposé : fille alors qu'il est un garçon, qui ose tout dire alors qu'il est timide[3].
-Petite, n'ayant pas les vêtements à la mode, Adèle subit les foudres des enfants populaires, au premier rang desquels Jade et Miranda. Pour lutter contre cela, Adèle fonde le club des bizarres qui fédère les enfants un peu différents[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Dole imagine le personnage d'Adèle alors qu'il avait 14 ans et était victime de harcèlement scolaire au collège. Il imagine le personnage comme son opposé : fille alors qu'il est un garçon, qui ose tout dire alors qu'il est timide.
+Petite, n'ayant pas les vêtements à la mode, Adèle subit les foudres des enfants populaires, au premier rang desquels Jade et Miranda. Pour lutter contre cela, Adèle fonde le club des bizarres qui fédère les enfants un peu différents.
 Les valeurs défendues par Adèle et son créateur Antoine Dole sont la tolérance, l'acceptation de la bizarrerie, l'affirmation de soi, le refus de se soumettre à la norme.
-En avril 2018, six ans après son lancement, la série atteint le millionième exemplaire vendu[5]. Fin 2019, plus de 2,5 millions d'exemplaires de la BD avaient été vendus, dont 1 million au cours de la seule année 2019[6]. Fin 2020, près de 5 millions de volumes auraient été vendus au total[7].
-En 2020, parmi les 10 titres de bandes dessinées les plus vendus en France, on trouve 4 volumes de la série Mortelle Adèle[8].
-Début 2021, treize albums de la série figurent parmi les 20 meilleures ventes hebdomadaires de bandes dessinées[9].
+En avril 2018, six ans après son lancement, la série atteint le millionième exemplaire vendu. Fin 2019, plus de 2,5 millions d'exemplaires de la BD avaient été vendus, dont 1 million au cours de la seule année 2019. Fin 2020, près de 5 millions de volumes auraient été vendus au total.
+En 2020, parmi les 10 titres de bandes dessinées les plus vendus en France, on trouve 4 volumes de la série Mortelle Adèle.
+Début 2021, treize albums de la série figurent parmi les 20 meilleures ventes hebdomadaires de bandes dessinées.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mortelle_Ad%C3%A8le</t>
+          <t>Mortelle_Adèle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,39 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adèle
-Elle est l'héroïne de la série. Petite fille rousse avec de longues couettes , elle arbore un uniforme d'écolière semblable à celui qu'on trouve dans les écoles anglaises. Elle passe son temps à réaliser des expériences toutes plus farfelues les unes que les autres sur son chat. Impertinente, elle désobéit souvent à ce que lui imposent les adultes et redouble d'imagination pour imposer ses règles.
-Famille
-Les parents
-Tentent quotidiennement de comprendre leur fille. Désemparés, ils sont le plus souvent soumis au bon vouloir d'Adèle et peinent à se faire obéir. Elle n'arrête pas de les tourmenter.
-La grand-mère
-Personnage secondaire qui attire plus ou moins la sympathie d'Adèle. En effet, la petite fille est persuadée que sa grand-mère est une sorcière en entendant son père dire d'elle « non mais quelle sorcière ! ».
-Son oncle
-Le père de Charlie.
-Charlie
-La cousine d'Adèle. Elle vit au Québec (Canada), elle a un lapin nommé Jaja, qui ressemble à Ajax.
-Animaux de compagnie
-Ajax
-Il est le souffre-douleur d'Adèle. En effet, Adèle voulait adopter un bébé lion et ses parents lui ont présenté Ajax comme un « vrai » bébé lion. Mais Adèle découvre dans le premier tome qu'il s'agit bel et bien d'un chaton. Elle n'a de cesse depuis d'essayer de se débarrasser du petit animal et lui fait subir de nombreuses expériences.
-Fizz
-Il est celui sur qui les espoirs d'Adèle reposent. En effet, la petite fille est persuadée qu'il s'agit d'un bébé grizzli, alors qu'il s'agit en réalité d'un simple hamster hyperactif.
-Jaja
-Il est le lapin de compagnie de Charlie.
-Ses fréquentations
-Geoffroy
-Il est amoureux d'Adèle et serait prêt à tout pour elle. Il subit d'ailleurs les humeurs de la petite fille sans jamais se plaindre. Il est vraiment gentil d'accepter tout ce que Adèle lui fait subir.
-Jade et Miranda
-Elles sont les ennemies jurées d'Adèle. Membres du club Barbie Malibu, elles représentent tout ce qu'Adèle déteste, ce qui ne manque pas de créer quotidiennement des conflits.
-Ludovic
-Ce personnage fait son apparition dans le tome 4 et marque un tournant dans la vie d'Adèle. Pour la première fois, la petite fille va tomber amoureuse et éprouver des sentiments pour quelqu'un. Mais les sentiments ne sont pas réciproques, et Ludovic voue une véritable indifférence à Adèle.
-Mélissa, Gontran et Thomas
-Ils font partie du club des bizarres, le club monté par Adèle à l'école (voir tome 5) pour contrecarrer les plans du club de Jade et ses copines. Ce club réunit les enfants rejetés par les autres élèves en raison de leurs différences.
-Magnus
-C'est l'ami imaginaire d'Adèle qui représente un citoyen révolutionnaire de la révolution française, d'après Adèle, Magnus serait mort guillotiné en 1789 et a promis à Adèle qu'après sa mort elle deviendrait son amie imaginaire. Magnus n'a peur de rien sauf des livres et CD qu'offre la grand-mère.
-Jennyfer
-Ce personnage fait son apparition dans le tome 6, c'est un véritable pot de colle pour Adèle. Elle est persuadée qu'elle et Adèle sont les meilleures amies car elle adore Adèle parce qu'elle est marrante, mais Adèle est prête à tout pour la faire changer d'avis.
-Owen
-Owen est un zombie crée par Adèle, cette dernière le fait passer pour son correspondant de Transylvanie.
+          <t>Adèle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est l'héroïne de la série. Petite fille rousse avec de longues couettes , elle arbore un uniforme d'écolière semblable à celui qu'on trouve dans les écoles anglaises. Elle passe son temps à réaliser des expériences toutes plus farfelues les unes que les autres sur son chat. Impertinente, elle désobéit souvent à ce que lui imposent les adultes et redouble d'imagination pour imposer ses règles.
 </t>
         </is>
       </c>
@@ -594,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mortelle_Ad%C3%A8le</t>
+          <t>Mortelle_Adèle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,13 +597,592 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les parents</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tentent quotidiennement de comprendre leur fille. Désemparés, ils sont le plus souvent soumis au bon vouloir d'Adèle et peinent à se faire obéir. Elle n'arrête pas de les tourmenter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La grand-mère</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Personnage secondaire qui attire plus ou moins la sympathie d'Adèle. En effet, la petite fille est persuadée que sa grand-mère est une sorcière en entendant son père dire d'elle « non mais quelle sorcière ! ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Son oncle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père de Charlie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cousine d'Adèle. Elle vit au Québec (Canada), elle a un lapin nommé Jaja, qui ressemble à Ajax.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Animaux de compagnie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le souffre-douleur d'Adèle. En effet, Adèle voulait adopter un bébé lion et ses parents lui ont présenté Ajax comme un « vrai » bébé lion. Mais Adèle découvre dans le premier tome qu'il s'agit bel et bien d'un chaton. Elle n'a de cesse depuis d'essayer de se débarrasser du petit animal et lui fait subir de nombreuses expériences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Animaux de compagnie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fizz</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est celui sur qui les espoirs d'Adèle reposent. En effet, la petite fille est persuadée qu'il s'agit d'un bébé grizzli, alors qu'il s'agit en réalité d'un simple hamster hyperactif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Animaux de compagnie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le lapin de compagnie de Charlie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Geoffroy</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est amoureux d'Adèle et serait prêt à tout pour elle. Il subit d'ailleurs les humeurs de la petite fille sans jamais se plaindre. Il est vraiment gentil d'accepter tout ce que Adèle lui fait subir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Jade et Miranda</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont les ennemies jurées d'Adèle. Membres du club Barbie Malibu, elles représentent tout ce qu'Adèle déteste, ce qui ne manque pas de créer quotidiennement des conflits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ludovic</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce personnage fait son apparition dans le tome 4 et marque un tournant dans la vie d'Adèle. Pour la première fois, la petite fille va tomber amoureuse et éprouver des sentiments pour quelqu'un. Mais les sentiments ne sont pas réciproques, et Ludovic voue une véritable indifférence à Adèle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Mélissa, Gontran et Thomas</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils font partie du club des bizarres, le club monté par Adèle à l'école (voir tome 5) pour contrecarrer les plans du club de Jade et ses copines. Ce club réunit les enfants rejetés par les autres élèves en raison de leurs différences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Magnus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'ami imaginaire d'Adèle qui représente un citoyen révolutionnaire de la révolution française, d'après Adèle, Magnus serait mort guillotiné en 1789 et a promis à Adèle qu'après sa mort elle deviendrait son amie imaginaire. Magnus n'a peur de rien sauf des livres et CD qu'offre la grand-mère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jennyfer</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce personnage fait son apparition dans le tome 6, c'est un véritable pot de colle pour Adèle. Elle est persuadée qu'elle et Adèle sont les meilleures amies car elle adore Adèle parce qu'elle est marrante, mais Adèle est prête à tout pour la faire changer d'avis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ses fréquentations</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Owen</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Owen est un zombie crée par Adèle, cette dernière le fait passer pour son correspondant de Transylvanie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Bandes dessinées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tomes de la série principale
-Tout ça finira mal (23 février 2012) (BNF 42648475)
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tomes de la série principale</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tout ça finira mal (23 février 2012) (BNF 42648475)
 L'enfer, c'est les autres (23 février 2012) (BNF 43485790)
 C'est pas ma faute ! (28 juin 2012) (BNF 43485791)
 J'aime pas l'amour ! (30 septembre 2012) (BNF 43613445)
@@ -634,44 +1201,114 @@
 Karmastrophique ! (10 juin 2020) (BNF 46553815)
 Toi, je te Zut ! (5 mai 2021) (BNF 46772051)
 Face de Beurk ! (19 octobre 2022) (BNF 47178442)
-J'apocalypse grave ! (5 octobre 2023) (BNF 47344795)
-Tomes collector
-Mortelle Adèle au pays des Contes Défaits (16 octobre 2019) (BNF 45823956)
+J'apocalypse grave ! (5 octobre 2023) (BNF 47344795)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tomes collector</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mortelle Adèle au pays des Contes Défaits (16 octobre 2019) (BNF 45823956)
 Mortelle Adèle et la galaxie des Bizarres (21 octobre 2020)
 Mortelle Adèle - Show Bizarre ! (20 octobre 2021)
-Mortelle Adèle et les Reliques du Chat-Lune (2 novembre 2023)
-Série dérivée Ajax
-Chat va bien ! (22 mars 2017)
+Mortelle Adèle et les Reliques du Chat-Lune (2 novembre 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Série dérivée Ajax</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Chat va bien ! (22 mars 2017)
 Chat s'arrange pas ! (18 avril 2018)
 Chaperlipopette (6 mars 2019)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mortelle_Ad%C3%A8le</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Romans</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Mortel un jour, Mortel toujours (27 mai 2020)
 Les bêtises, c'est maintenant (24 mars 2021) (BNF 46722176)
@@ -680,47 +1317,188 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mortelle_Ad%C3%A8le</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeux de société
-Défis mortels (octobre 2017)
-Poussez-vous les moches ! (octobre 2018)
-Livres de jeux L'Extra Mortelle Adèle
-Une nuit avec ma baby-sittrice (5 juin 2014)
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Jeux de société</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Défis mortels (octobre 2017)
+Poussez-vous les moches ! (octobre 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Livres de jeux L'Extra Mortelle Adèle</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Une nuit avec ma baby-sittrice (5 juin 2014)
 L'Anniversaire de Jade (17 juin 2015)
 La Révolte des bizarres ! (15 juin 2016)
-L'Expérience interdite (7 juin 2017)
-Livres d'activité
-Fais ta BD avec Mortelle Adèle (18 novembre 2015)
-Fais ton cinéma avec Mortelle Adèle (22 novembre 2017)
-Journal
-Le Journal Des Bizarres (6 avril 2023)
-Magazine
-Magazine Mortelle Adèle no 1 (septembre 2019)
+L'Expérience interdite (7 juin 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Livres d'activité</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Fais ta BD avec Mortelle Adèle (18 novembre 2015)
+Fais ton cinéma avec Mortelle Adèle (22 novembre 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Le Journal Des Bizarres (6 avril 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Magazine</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Magazine Mortelle Adèle no 1 (septembre 2019)
 Magazine Mortelle Adèle no 2 (décembre 2019)
 Magazine Mortelle Adèle no 3 (Mars 2020)
 Magazine Mortelle Adèle no 4 (juillet 2020)
@@ -729,12 +1507,81 @@
 Magazine Mortelle Adèle no 7 (mars 2021)
 Mortelle Adèle Le Mag' no 1 (juin 2023)
 Mortelle Adèle Le Mag' no 2 (août 2023)
-Mortelle Adèle Le Mag' no 3 (octobre 2023)
-Musique
-En 2018, le chanteur Aldebert met en scène Mortelle Adèle dans la chanson Poussez-vous les moches ! sur son album Enfantillages, les 10 ans[10]. L'actrice Dorothée Pousséo y assure la voix d'Adèle.
-Aldebert compose ensuite un album entier, Mortelle Adèle – Show Bizarre, édité le 20 octobre 2021, toujours avec Dorothée Pousséo pour la voix de l'héroïne et avec la participation d'autres acteurs comme Emmanuel Curtil et Claire Guyot[11]. Celui-ci est suivi d'un album de Noël,  365 jours pour être sage, sorti le 29 novembre 2022.
-Série animée
-Une série animée est actuellement en préproduction en 2022. Après avoir donné sa voix à Adèle sur les chansons composées par Aldebert, Dorothée Pousséo est choisie pour doubler le personnage principal[réf. nécessaire].
+Mortelle Adèle Le Mag' no 3 (octobre 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, le chanteur Aldebert met en scène Mortelle Adèle dans la chanson Poussez-vous les moches ! sur son album Enfantillages, les 10 ans. L'actrice Dorothée Pousséo y assure la voix d'Adèle.
+Aldebert compose ensuite un album entier, Mortelle Adèle – Show Bizarre, édité le 20 octobre 2021, toujours avec Dorothée Pousséo pour la voix de l'héroïne et avec la participation d'autres acteurs comme Emmanuel Curtil et Claire Guyot. Celui-ci est suivi d'un album de Noël,  365 jours pour être sage, sorti le 29 novembre 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mortelle_Adèle</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mortelle_Ad%C3%A8le</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Série animée</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série animée est actuellement en préproduction en 2022. Après avoir donné sa voix à Adèle sur les chansons composées par Aldebert, Dorothée Pousséo est choisie pour doubler le personnage principal[réf. nécessaire].
 </t>
         </is>
       </c>
